--- a/data/trans_orig/P14C32-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C32-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E92BC09-482D-4916-8493-E0773A8E77CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{397FF73C-C706-4B0F-BE79-64D9684553A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B810380C-39B9-40E7-90C9-286E6FD2743F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7491C23C-6331-4CD7-ABEC-E8A91A00162B}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -179,151 +179,151 @@
     <t>71,71%</t>
   </si>
   <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
   </si>
   <si>
     <t>73,11%</t>
   </si>
   <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
   </si>
   <si>
     <t>72,73%</t>
   </si>
   <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>35,1%</t>
+    <t>40,52%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>51,6%</t>
+    <t>53,85%</t>
   </si>
   <si>
     <t>11,82%</t>
   </si>
   <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
   </si>
   <si>
     <t>14,04%</t>
   </si>
   <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>31,02%</t>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
   </si>
   <si>
     <t>67,75%</t>
   </si>
   <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
   </si>
   <si>
     <t>65,16%</t>
   </si>
   <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
   </si>
   <si>
     <t>65,79%</t>
   </si>
   <si>
-    <t>51,89%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
+    <t>51,83%</t>
+  </si>
+  <si>
+    <t>78,24%</t>
   </si>
   <si>
     <t>15,24%</t>
   </si>
   <si>
-    <t>45,2%</t>
+    <t>44,17%</t>
   </si>
   <si>
     <t>20,71%</t>
   </si>
   <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>36,86%</t>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
   </si>
   <si>
     <t>19,39%</t>
   </si>
   <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
   </si>
   <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>47,88%</t>
+    <t>45,34%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
   </si>
   <si>
     <t>14,82%</t>
   </si>
   <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -738,7 +738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFA6EC5-7CE4-4888-981E-3A4F7B6A900C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71207C67-5158-4F9B-9814-E5270D1439AF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C32-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C32-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{397FF73C-C706-4B0F-BE79-64D9684553A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45204AD4-8868-4FC4-A2EE-35AE6BEE12D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7491C23C-6331-4CD7-ABEC-E8A91A00162B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{46338B81-515E-45E1-8304-6C0B229FF22B}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="97">
   <si>
-    <t>Población según el tiempo de diagnóstico del incontinencia urinaria en 2015 (Tasa respuesta: 0,79%)</t>
+    <t>Población según el tiempo de diagnóstico del incontinencia urinaria en 2016 (Tasa respuesta: 0,79%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -137,13 +137,13 @@
     <t>38,46%</t>
   </si>
   <si>
-    <t>80,78%</t>
+    <t>80,45%</t>
   </si>
   <si>
     <t>32,13%</t>
   </si>
   <si>
-    <t>80,05%</t>
+    <t>78,93%</t>
   </si>
   <si>
     <t>38,21%</t>
@@ -155,22 +155,22 @@
     <t>48,39%</t>
   </si>
   <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>83,95%</t>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>84,03%</t>
   </si>
   <si>
     <t>23,33%</t>
   </si>
   <si>
-    <t>83,0%</t>
+    <t>65,85%</t>
   </si>
   <si>
     <t>19,48%</t>
   </si>
   <si>
-    <t>71,1%</t>
+    <t>70,85%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -179,34 +179,34 @@
     <t>71,71%</t>
   </si>
   <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
   </si>
   <si>
     <t>73,11%</t>
   </si>
   <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>72,73%</t>
   </si>
   <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
   </si>
   <si>
     <t>8,28%</t>
   </si>
   <si>
-    <t>40,52%</t>
+    <t>34,48%</t>
   </si>
   <si>
     <t>15,07%</t>
@@ -215,115 +215,115 @@
     <t>3,96%</t>
   </si>
   <si>
-    <t>32,89%</t>
+    <t>33,24%</t>
   </si>
   <si>
     <t>13,23%</t>
   </si>
   <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
   </si>
   <si>
     <t>20,02%</t>
   </si>
   <si>
-    <t>53,85%</t>
+    <t>55,62%</t>
   </si>
   <si>
     <t>11,82%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
   </si>
   <si>
     <t>14,04%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
   </si>
   <si>
     <t>67,75%</t>
   </si>
   <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
   </si>
   <si>
     <t>65,16%</t>
   </si>
   <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
   </si>
   <si>
     <t>65,79%</t>
   </si>
   <si>
-    <t>51,83%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
   </si>
   <si>
     <t>15,24%</t>
   </si>
   <si>
-    <t>44,17%</t>
+    <t>39,06%</t>
   </si>
   <si>
     <t>20,71%</t>
   </si>
   <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
   </si>
   <si>
     <t>19,39%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
   </si>
   <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>45,34%</t>
+    <t>43,3%</t>
   </si>
   <si>
     <t>14,13%</t>
   </si>
   <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
   </si>
   <si>
     <t>14,82%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -738,7 +738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71207C67-5158-4F9B-9814-E5270D1439AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B72644F6-B6BF-4057-9ECF-8AD447E76D2F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
